--- a/WorkLog.xlsx
+++ b/WorkLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="30" windowWidth="20115" windowHeight="9405" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="9405" firstSheet="20" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,13 @@
     <sheet name="20170824" sheetId="48" r:id="rId24"/>
     <sheet name="20170830" sheetId="49" r:id="rId25"/>
     <sheet name="20170918" sheetId="50" r:id="rId26"/>
-    <sheet name="tmp" sheetId="2" r:id="rId27"/>
-    <sheet name="Note" sheetId="9" r:id="rId28"/>
+    <sheet name="20171025" sheetId="51" r:id="rId27"/>
+    <sheet name="tmp" sheetId="2" r:id="rId28"/>
+    <sheet name="Note" sheetId="9" r:id="rId29"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="dasdasd" localSheetId="8">#REF!</definedName>
@@ -64,6 +65,7 @@
     <definedName name="dasdasd" localSheetId="23">#REF!</definedName>
     <definedName name="dasdasd" localSheetId="24">#REF!</definedName>
     <definedName name="dasdasd" localSheetId="25">#REF!</definedName>
+    <definedName name="dasdasd" localSheetId="26">#REF!</definedName>
     <definedName name="dasdasd">#REF!</definedName>
     <definedName name="FID_1">[1]主契約戻入率!$A$109:$I$145</definedName>
     <definedName name="FID_2">[1]主契約戻入率!$A$146:$I$182</definedName>
@@ -98,6 +100,7 @@
     <definedName name="費目10ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目10ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目10ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目10ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目10ページ">#REF!</definedName>
     <definedName name="費目11ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目11ページ" localSheetId="9">#REF!</definedName>
@@ -117,6 +120,7 @@
     <definedName name="費目11ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目11ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目11ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目11ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目11ページ">#REF!</definedName>
     <definedName name="費目12ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目12ページ" localSheetId="9">#REF!</definedName>
@@ -136,6 +140,7 @@
     <definedName name="費目12ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目12ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目12ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目12ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目12ページ">#REF!</definedName>
     <definedName name="費目13ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目13ページ" localSheetId="9">#REF!</definedName>
@@ -155,6 +160,7 @@
     <definedName name="費目13ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目13ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目13ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目13ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目13ページ">#REF!</definedName>
     <definedName name="費目１ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目１ページ" localSheetId="9">#REF!</definedName>
@@ -174,6 +180,7 @@
     <definedName name="費目１ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目１ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目１ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目１ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目１ページ">#REF!</definedName>
     <definedName name="費目２ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目２ページ" localSheetId="9">#REF!</definedName>
@@ -193,6 +200,7 @@
     <definedName name="費目２ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目２ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目２ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目２ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目２ページ">#REF!</definedName>
     <definedName name="費目３ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目３ページ" localSheetId="9">#REF!</definedName>
@@ -212,6 +220,7 @@
     <definedName name="費目３ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目３ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目３ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目３ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目３ページ">#REF!</definedName>
     <definedName name="費目４ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目４ページ" localSheetId="9">#REF!</definedName>
@@ -231,6 +240,7 @@
     <definedName name="費目４ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目４ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目４ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目４ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目４ページ">#REF!</definedName>
     <definedName name="費目５ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目５ページ" localSheetId="9">#REF!</definedName>
@@ -250,6 +260,7 @@
     <definedName name="費目５ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目５ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目５ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目５ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目５ページ">#REF!</definedName>
     <definedName name="費目６ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目６ページ" localSheetId="9">#REF!</definedName>
@@ -269,6 +280,7 @@
     <definedName name="費目６ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目６ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目６ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目６ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目６ページ">#REF!</definedName>
     <definedName name="費目７ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目７ページ" localSheetId="9">#REF!</definedName>
@@ -288,6 +300,7 @@
     <definedName name="費目７ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目７ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目７ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目７ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目７ページ">#REF!</definedName>
     <definedName name="費目８ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目８ページ" localSheetId="9">#REF!</definedName>
@@ -307,6 +320,7 @@
     <definedName name="費目８ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目８ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目８ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目８ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目８ページ">#REF!</definedName>
     <definedName name="費目９ページ" localSheetId="8">#REF!</definedName>
     <definedName name="費目９ページ" localSheetId="9">#REF!</definedName>
@@ -326,6 +340,7 @@
     <definedName name="費目９ページ" localSheetId="23">#REF!</definedName>
     <definedName name="費目９ページ" localSheetId="24">#REF!</definedName>
     <definedName name="費目９ページ" localSheetId="25">#REF!</definedName>
+    <definedName name="費目９ページ" localSheetId="26">#REF!</definedName>
     <definedName name="費目９ページ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
@@ -333,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="858">
   <si>
     <t>Năm</t>
     <phoneticPr fontId="1"/>
@@ -10703,6 +10718,90 @@
   </si>
   <si>
     <t xml:space="preserve">  and a.int_permit_count &gt; 0</t>
+  </si>
+  <si>
+    <t>https://api2.flierinc.com/docs/#api-Summary-GetV2SummaryFree</t>
+  </si>
+  <si>
+    <t>ナムさん、ティエンさん</t>
+  </si>
+  <si>
+    <t>お疲れ様です。本吉です。</t>
+  </si>
+  <si>
+    <t>タスクの工数見積もりをお願いします。</t>
+  </si>
+  <si>
+    <t>不明点があれば、本吉まで質問してください。</t>
+  </si>
+  <si>
+    <t>■１．flierAPI連携</t>
+  </si>
+  <si>
+    <t>・バナー一覧取得</t>
+  </si>
+  <si>
+    <t>　・リンク先をflier×biz内のコンテンツに紐づくようにする</t>
+  </si>
+  <si>
+    <t>・カルーセル一覧取得</t>
+  </si>
+  <si>
+    <t>・タイプ別特集一覧取得</t>
+  </si>
+  <si>
+    <t>　・interview,pickup,column,recommend</t>
+  </si>
+  <si>
+    <t>　・TOPに新着表示、それぞれの一覧表示画面</t>
+  </si>
+  <si>
+    <t>・タイプ別特集詳細取得</t>
+  </si>
+  <si>
+    <t>・特集タイプ一覧取得</t>
+  </si>
+  <si>
+    <t>・ランキング取得</t>
+  </si>
+  <si>
+    <t>　・TOPに表示、それぞれの一覧表示画面</t>
+  </si>
+  <si>
+    <t>■２．機能追加</t>
+  </si>
+  <si>
+    <t>　①要約ページへコメント機能追加</t>
+  </si>
+  <si>
+    <t>　　┗bizbookのコメント機能と同等のもの</t>
+  </si>
+  <si>
+    <t>　②要約お気に入り機能追加＋お気に入り一覧ページ作成</t>
+  </si>
+  <si>
+    <t>　　┗bizbookのキープリストと同等のもの</t>
+  </si>
+  <si>
+    <t>　③管理コンソールのグラフに詳細ページへのリンク追加</t>
+  </si>
+  <si>
+    <t>　④管理コンソールに要約読了状況一覧ページ追加</t>
+  </si>
+  <si>
+    <t>　　┗社員の読了/読書中要約数を一覧で表示</t>
+  </si>
+  <si>
+    <t>　⑤カート機能 #79</t>
+  </si>
+  <si>
+    <t>　⑥ポイント指定機能 #21</t>
+  </si>
+  <si>
+    <t>■３．MDDCジャンル変更対応 #2、#73</t>
+  </si>
+  <si>
+    <t>以上、よろしくお願い致します。</t>
   </si>
 </sst>
 </file>
@@ -10712,7 +10811,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10999,6 +11098,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -11226,7 +11332,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11463,6 +11569,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -47467,10 +47576,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP81"/>
+  <dimension ref="A1:AP84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="AP63" sqref="AP63"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15"/>
@@ -47912,6 +48021,11 @@
         <v>745</v>
       </c>
     </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -47931,7 +48045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
@@ -48591,7 +48705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
@@ -48865,7 +48979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
@@ -49369,6 +49483,196 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="79" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="79" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="79" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="79" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="79" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="79" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="79" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="79" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="79" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="79" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="79" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="79" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="79" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="79" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="79" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="79" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="79" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="79" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="79" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="79" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="79" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="79" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="79" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="79" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="79" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="79" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="79" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="79" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="79" t="s">
+        <v>857</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Overview!A1" display="&lt;&lt;"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
@@ -49396,7 +49700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
